--- a/Polímeros - Pruebas Hipótesis/Prop Mec Raquis PE.xlsx
+++ b/Polímeros - Pruebas Hipótesis/Prop Mec Raquis PE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/PasantiasUDC/Polímeros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/UDC/Polímeros - Pruebas Hipótesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D3870414-4566-40CB-BBA1-8863197E8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A052EC92-D2B0-4237-B76E-5B9BB1DEABC1}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{D3870414-4566-40CB-BBA1-8863197E8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B380388A-BDDA-4BFC-BD0F-D41CBA22AD89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,19 +577,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,251 +609,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Elipse 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127CF875-E278-6E3C-CDAD-503D71B6CA66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1857375" y="609600"/>
-          <a:ext cx="161925" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1038224</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Signo de multiplicación 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBBDC83-E57D-8EA0-E172-33F9208FF9C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752599" y="1095375"/>
-          <a:ext cx="333375" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6F9644-7638-1443-FB89-90E704B0A01E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1885950" y="1781175"/>
-          <a:ext cx="104775" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Triángulo isósceles 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D24ECD-0615-895F-CF57-0BCE49867DA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1895475" y="2314575"/>
-          <a:ext cx="142875" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,7 +914,7 @@
   <dimension ref="B3:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,10 +944,10 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
@@ -1203,8 +958,8 @@
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="1">
         <v>20</v>
       </c>
@@ -1213,8 +968,8 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="1">
         <v>30</v>
       </c>
@@ -1223,8 +978,8 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1">
@@ -1235,8 +990,8 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="1">
         <v>20</v>
       </c>
@@ -1245,8 +1000,8 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="1">
         <v>30</v>
       </c>
@@ -1255,8 +1010,8 @@
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1">
@@ -1267,8 +1022,8 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="1">
         <v>20</v>
       </c>
@@ -1277,8 +1032,8 @@
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="1">
         <v>30</v>
       </c>
@@ -1287,8 +1042,8 @@
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1">
@@ -1299,8 +1054,8 @@
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="1">
         <v>20</v>
       </c>
@@ -1309,8 +1064,8 @@
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="1">
         <v>30</v>
       </c>
@@ -1319,10 +1074,10 @@
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="1">
@@ -1333,8 +1088,8 @@
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="1">
         <v>20</v>
       </c>
@@ -1343,8 +1098,8 @@
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="1">
         <v>30</v>
       </c>
@@ -1353,8 +1108,8 @@
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="1">
@@ -1365,8 +1120,8 @@
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="1">
         <v>20</v>
       </c>
@@ -1375,8 +1130,8 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="1">
         <v>30</v>
       </c>
@@ -1385,8 +1140,8 @@
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1">
@@ -1397,8 +1152,8 @@
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="1">
         <v>20</v>
       </c>
@@ -1407,8 +1162,8 @@
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="1">
         <v>30</v>
       </c>
@@ -1417,8 +1172,8 @@
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1">
@@ -1429,8 +1184,8 @@
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="1">
         <v>20</v>
       </c>
@@ -1439,8 +1194,8 @@
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="1">
         <v>30</v>
       </c>
@@ -1449,10 +1204,10 @@
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1">
@@ -1463,8 +1218,8 @@
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="1">
         <v>20</v>
       </c>
@@ -1473,8 +1228,8 @@
       <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="1">
         <v>30</v>
       </c>
@@ -1483,8 +1238,8 @@
       <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1">
@@ -1495,8 +1250,8 @@
       <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="1">
         <v>20</v>
       </c>
@@ -1505,8 +1260,8 @@
       <c r="B33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="1">
         <v>30</v>
       </c>
@@ -1515,8 +1270,8 @@
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="1">
@@ -1527,8 +1282,8 @@
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="1">
         <v>20</v>
       </c>
@@ -1537,8 +1292,8 @@
       <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="1">
         <v>30</v>
       </c>
@@ -1547,8 +1302,8 @@
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="34" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="1">
@@ -1559,8 +1314,8 @@
       <c r="B38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="1">
         <v>20</v>
       </c>
@@ -1569,8 +1324,8 @@
       <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="1">
         <v>30</v>
       </c>
@@ -1579,10 +1334,10 @@
       <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="1">
@@ -1593,8 +1348,8 @@
       <c r="B41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="34"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="1">
         <v>20</v>
       </c>
@@ -1603,8 +1358,8 @@
       <c r="B42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="34"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="1">
         <v>30</v>
       </c>
@@ -1613,8 +1368,8 @@
       <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="34" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="1">
@@ -1625,8 +1380,8 @@
       <c r="B44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="34"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="1">
         <v>20</v>
       </c>
@@ -1635,8 +1390,8 @@
       <c r="B45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="34"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="1">
         <v>30</v>
       </c>
@@ -1645,8 +1400,8 @@
       <c r="B46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="34" t="s">
+      <c r="C46" s="36"/>
+      <c r="D46" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="1">
@@ -1657,8 +1412,8 @@
       <c r="B47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="34"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="1">
         <v>20</v>
       </c>
@@ -1667,8 +1422,8 @@
       <c r="B48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="34"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="1">
         <v>30</v>
       </c>
@@ -1677,8 +1432,8 @@
       <c r="B49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="34" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1">
@@ -1689,8 +1444,8 @@
       <c r="B50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="34"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="1">
         <v>20</v>
       </c>
@@ -1699,38 +1454,37 @@
       <c r="B51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="34"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="1">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C16:C27"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C4:C15"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D51"/>
     <mergeCell ref="C28:C39"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C40:C51"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="C4:C15"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C16:C27"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11121,9 +10875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
